--- a/larray/tests/data/pop_only.xlsx
+++ b/larray/tests/data/pop_only.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABFA785-B0CA-4A1B-B573-B51E698C67DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F997FE9-3A86-4E82-8827-E78A7B50AEA5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11505" xr2:uid="{B2C3A429-FC47-4D99-A7F6-D8A8C3F4E1FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="2" xr2:uid="{B6BB4E53-7D3F-4A9E-8EAF-D05731C43B24}"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
-    <sheet name="__axes__" sheetId="4" r:id="rId2"/>
-    <sheet name="__groups__" sheetId="5" r:id="rId3"/>
+    <sheet name="__axes__" sheetId="2" r:id="rId2"/>
+    <sheet name="__groups__" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -29,7 +34,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
-    <t>geo</t>
+    <t>country</t>
   </si>
   <si>
     <t>gender\time</t>
@@ -410,12 +415,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D5FCC3-6402-43C0-95BA-49A6A33C3F85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5888C-0943-4F2D-80F9-D59E2FA19AA8}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -544,7 +547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B815F5-B2F4-4EC8-A90D-71AD68824E75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6427A810-E962-4E0A-9D09-4E675849C42B}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -598,10 +601,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6EAEC6-791E-4450-A7B6-0D11D0DBECF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CEB92-90BF-459F-B797-9804D9AAE6F9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/larray/tests/data/pop_only.xlsx
+++ b/larray/tests/data/pop_only.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ald\Projects\larray\larray\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F997FE9-3A86-4E82-8827-E78A7B50AEA5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B7180C-6D19-449A-81CB-FA88ED5A2922}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" activeTab="2" xr2:uid="{B6BB4E53-7D3F-4A9E-8EAF-D05731C43B24}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{B17031DC-BA17-46DD-B94B-9E042B56550E}"/>
   </bookViews>
   <sheets>
     <sheet name="pop" sheetId="1" r:id="rId1"/>
     <sheet name="__axes__" sheetId="2" r:id="rId2"/>
-    <sheet name="__groups__" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>country</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>even_years@time</t>
-  </si>
-  <si>
-    <t>odd_years@time</t>
   </si>
 </sst>
 </file>
@@ -415,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5888C-0943-4F2D-80F9-D59E2FA19AA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23077190-6C56-4B49-8CF4-1CD687D70805}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -484,10 +478,10 @@
         <v>31772665</v>
       </c>
       <c r="D4">
-        <v>31936596</v>
+        <v>32045129</v>
       </c>
       <c r="E4">
-        <v>32175328</v>
+        <v>32174258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,10 +495,10 @@
         <v>33827685</v>
       </c>
       <c r="D5">
-        <v>34005671</v>
+        <v>34120851</v>
       </c>
       <c r="E5">
-        <v>34280951</v>
+        <v>34283895</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -547,10 +541,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6427A810-E962-4E0A-9D09-4E675849C42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EB56CC-8CD1-4C38-ACB4-1F10E509946D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -598,38 +592,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CEB92-90BF-459F-B797-9804D9AAE6F9}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2014</v>
-      </c>
-      <c r="B2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2015</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>